--- a/Data/Time Series Analysis and Forecasting.xlsx
+++ b/Data/Time Series Analysis and Forecasting.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="28035" windowHeight="10080" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="28035" windowHeight="10020" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="3Y" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="27">
   <si>
     <t>Year</t>
   </si>
@@ -98,6 +98,14 @@
   </si>
   <si>
     <t>RMSE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RMSE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Avg_Count</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -252,6 +260,21 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
     </c:title>
@@ -440,11 +463,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="45287936"/>
-        <c:axId val="94464832"/>
+        <c:axId val="144564736"/>
+        <c:axId val="48558016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="45287936"/>
+        <c:axId val="144564736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -454,7 +477,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94464832"/>
+        <c:crossAx val="48558016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -462,7 +485,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94464832"/>
+        <c:axId val="48558016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -473,7 +496,260 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45287936"/>
+        <c:crossAx val="144564736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ES .2'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg_Count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'ES .2'!$A$2:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ES .2'!$E$2:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>18804.599999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24533.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20951</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13748.636363636364</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11508.727272727272</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28333.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31701.200000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39050.199999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27097</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45056.333333333336</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27818.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43333.333333333336</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29482.25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>38256</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28084</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>50626</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>33560</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42552.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>55716</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>57500</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>60000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="75927040"/>
+        <c:axId val="226482944"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="75927040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="226482944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="226482944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="75927040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -494,13 +770,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -517,6 +793,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>671511</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>676274</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -815,11 +1121,14 @@
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="E23" sqref="E5:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.25" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.75" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.75" customWidth="1"/>
   </cols>
@@ -1638,10 +1947,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B23"/>
+      <selection activeCell="N24" sqref="A1:N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2167,7 +2476,7 @@
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>2013</v>
       </c>
@@ -2202,7 +2511,7 @@
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>2014</v>
       </c>
@@ -2237,7 +2546,7 @@
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>2015</v>
       </c>
@@ -2272,7 +2581,7 @@
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>2016</v>
       </c>
@@ -2307,7 +2616,7 @@
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>2017</v>
       </c>
@@ -2342,7 +2651,7 @@
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>2018</v>
       </c>
@@ -2377,7 +2686,7 @@
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>2019</v>
       </c>
@@ -2412,7 +2721,7 @@
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -2433,6 +2742,10 @@
       </c>
       <c r="M24" s="11">
         <v>1416780528.3055556</v>
+      </c>
+      <c r="N24">
+        <f>SQRT(M24)</f>
+        <v>37640.145168497365</v>
       </c>
     </row>
   </sheetData>
@@ -2443,10 +2756,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection sqref="A1:L24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M24" sqref="A1:M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2996,7 +3309,7 @@
         <v>0.88439702224349537</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>2013</v>
       </c>
@@ -3031,7 +3344,7 @@
         <v>0.10184126376011493</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>2014</v>
       </c>
@@ -3066,7 +3379,7 @@
         <v>1.9385580579135184</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>2015</v>
       </c>
@@ -3101,7 +3414,7 @@
         <v>0.3257714496668998</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>2016</v>
       </c>
@@ -3136,7 +3449,7 @@
         <v>0.23897018082294846</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>2017</v>
       </c>
@@ -3171,7 +3484,7 @@
         <v>0.36401832568073728</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>2018</v>
       </c>
@@ -3206,7 +3519,7 @@
         <v>0.27793306997460138</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>2019</v>
       </c>
@@ -3241,7 +3554,7 @@
         <v>0.22811343444129512</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J24" s="3">
         <f>AVERAGE(I3:I23)</f>
         <v>0.48062504118365268</v>
@@ -3253,6 +3566,10 @@
       <c r="L24" s="5">
         <f>AVERAGE(G3:G23)</f>
         <v>5442978112.318923</v>
+      </c>
+      <c r="M24">
+        <f>SQRT(L24)</f>
+        <v>73776.541748166288</v>
       </c>
     </row>
   </sheetData>
@@ -3264,19 +3581,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCellId="1" sqref="E1:E23 A1:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="9" style="8"/>
-    <col min="13" max="13" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="8"/>
+    <col min="14" max="14" width="12.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="66" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3288,34 +3606,37 @@
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>2000</v>
       </c>
@@ -3325,7 +3646,10 @@
       <c r="D2" s="1">
         <v>10</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="8">
+        <f>C2/D2</f>
+        <v>18804.599999999999</v>
+      </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -3334,8 +3658,9 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2001</v>
       </c>
@@ -3345,35 +3670,39 @@
       <c r="D3" s="1">
         <v>10</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="8">
+        <f t="shared" ref="E3:E24" si="0">C3/D3</f>
+        <v>24533.8</v>
+      </c>
+      <c r="F3" s="2">
         <f>C2</f>
         <v>188046</v>
       </c>
-      <c r="F3" s="2">
-        <f>C3-E3</f>
+      <c r="G3" s="2">
+        <f>C3-F3</f>
         <v>57292</v>
       </c>
-      <c r="G3" s="1">
-        <f>ABS(F3)</f>
+      <c r="H3" s="1">
+        <f>ABS(G3)</f>
         <v>57292</v>
       </c>
-      <c r="H3" s="1">
-        <f>G3^2</f>
+      <c r="I3" s="1">
+        <f>H3^2</f>
         <v>3282373264</v>
       </c>
-      <c r="I3" s="1">
-        <f>F3/C3</f>
+      <c r="J3" s="1">
+        <f>G3/C3</f>
         <v>0.23352273190455616</v>
       </c>
-      <c r="J3" s="1">
-        <f>ABS(I3)</f>
+      <c r="K3" s="1">
+        <f>ABS(J3)</f>
         <v>0.23352273190455616</v>
       </c>
-      <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2002</v>
       </c>
@@ -3383,35 +3712,39 @@
       <c r="D4" s="1">
         <v>10</v>
       </c>
-      <c r="E4" s="1">
-        <f>0.2*C3+0.8*E3</f>
+      <c r="E4" s="8">
+        <f t="shared" si="0"/>
+        <v>20951</v>
+      </c>
+      <c r="F4" s="1">
+        <f>0.2*C3+0.8*F3</f>
         <v>199504.40000000002</v>
       </c>
-      <c r="F4" s="2">
-        <f t="shared" ref="F4:F23" si="0">C4-E4</f>
+      <c r="G4" s="2">
+        <f>C4-F4</f>
         <v>10005.599999999977</v>
       </c>
-      <c r="G4" s="1">
-        <f t="shared" ref="G4:G23" si="1">ABS(F4)</f>
+      <c r="H4" s="1">
+        <f t="shared" ref="H4:H23" si="1">ABS(G4)</f>
         <v>10005.599999999977</v>
       </c>
-      <c r="H4" s="1">
-        <f t="shared" ref="H4:H23" si="2">G4^2</f>
+      <c r="I4" s="1">
+        <f t="shared" ref="I4:I23" si="2">H4^2</f>
         <v>100112031.35999954</v>
       </c>
-      <c r="I4" s="1">
-        <f t="shared" ref="I4:I23" si="3">F4/C4</f>
+      <c r="J4" s="1">
+        <f>G4/C4</f>
         <v>4.7757147630184606E-2</v>
       </c>
-      <c r="J4" s="1">
-        <f t="shared" ref="J4:J23" si="4">ABS(I4)</f>
+      <c r="K4" s="1">
+        <f t="shared" ref="K4:K23" si="3">ABS(J4)</f>
         <v>4.7757147630184606E-2</v>
       </c>
-      <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2003</v>
       </c>
@@ -3421,35 +3754,39 @@
       <c r="D5" s="1">
         <v>11</v>
       </c>
-      <c r="E5" s="1">
-        <f t="shared" ref="E5:E23" si="5">0.2*C4+0.8*E4</f>
+      <c r="E5" s="8">
+        <f t="shared" si="0"/>
+        <v>13748.636363636364</v>
+      </c>
+      <c r="F5" s="1">
+        <f>0.2*C4+0.8*F4</f>
         <v>201505.52000000002</v>
       </c>
-      <c r="F5" s="2">
-        <f t="shared" si="0"/>
+      <c r="G5" s="2">
+        <f>C5-F5</f>
         <v>-50270.520000000019</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <f t="shared" si="1"/>
         <v>50270.520000000019</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <f t="shared" si="2"/>
         <v>2527125181.0704017</v>
       </c>
-      <c r="I5" s="1">
-        <f t="shared" si="3"/>
+      <c r="J5" s="1">
+        <f>G5/C5</f>
         <v>-0.33240003967335618</v>
       </c>
-      <c r="J5" s="1">
-        <f t="shared" si="4"/>
+      <c r="K5" s="1">
+        <f t="shared" si="3"/>
         <v>0.33240003967335618</v>
       </c>
-      <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2004</v>
       </c>
@@ -3459,35 +3796,39 @@
       <c r="D6" s="1">
         <v>11</v>
       </c>
-      <c r="E6" s="1">
-        <f t="shared" si="5"/>
+      <c r="E6" s="8">
+        <f t="shared" si="0"/>
+        <v>11508.727272727272</v>
+      </c>
+      <c r="F6" s="1">
+        <f>0.2*C5+0.8*F5</f>
         <v>191451.41600000003</v>
       </c>
-      <c r="F6" s="2">
-        <f t="shared" si="0"/>
+      <c r="G6" s="2">
+        <f>C6-F6</f>
         <v>-64855.416000000027</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <f t="shared" si="1"/>
         <v>64855.416000000027</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <f t="shared" si="2"/>
         <v>4206224984.5330596</v>
       </c>
-      <c r="I6" s="1">
-        <f t="shared" si="3"/>
+      <c r="J6" s="1">
+        <f>G6/C6</f>
         <v>-0.51230225283579278</v>
       </c>
-      <c r="J6" s="1">
-        <f t="shared" si="4"/>
+      <c r="K6" s="1">
+        <f t="shared" si="3"/>
         <v>0.51230225283579278</v>
       </c>
-      <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2005</v>
       </c>
@@ -3497,35 +3838,39 @@
       <c r="D7" s="1">
         <v>10</v>
       </c>
-      <c r="E7" s="1">
-        <f t="shared" si="5"/>
+      <c r="E7" s="8">
+        <f t="shared" si="0"/>
+        <v>28333.3</v>
+      </c>
+      <c r="F7" s="1">
+        <f>0.2*C6+0.8*F6</f>
         <v>178480.33280000003</v>
       </c>
-      <c r="F7" s="2">
-        <f t="shared" si="0"/>
+      <c r="G7" s="2">
+        <f>C7-F7</f>
         <v>104852.66719999997</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <f t="shared" si="1"/>
         <v>104852.66719999997</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <f t="shared" si="2"/>
         <v>10994081818.953949</v>
       </c>
-      <c r="I7" s="1">
-        <f t="shared" si="3"/>
+      <c r="J7" s="1">
+        <f>G7/C7</f>
         <v>0.37006867255137937</v>
       </c>
-      <c r="J7" s="1">
-        <f t="shared" si="4"/>
+      <c r="K7" s="1">
+        <f t="shared" si="3"/>
         <v>0.37006867255137937</v>
       </c>
-      <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>2006</v>
       </c>
@@ -3535,35 +3880,39 @@
       <c r="D8" s="1">
         <v>10</v>
       </c>
-      <c r="E8" s="1">
-        <f t="shared" si="5"/>
+      <c r="E8" s="8">
+        <f t="shared" si="0"/>
+        <v>31701.200000000001</v>
+      </c>
+      <c r="F8" s="1">
+        <f>0.2*C7+0.8*F7</f>
         <v>199450.86624000003</v>
       </c>
-      <c r="F8" s="2">
-        <f t="shared" si="0"/>
+      <c r="G8" s="2">
+        <f>C8-F8</f>
         <v>117561.13375999997</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <f t="shared" si="1"/>
         <v>117561.13375999997</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <f t="shared" si="2"/>
         <v>13820620170.936604</v>
       </c>
-      <c r="I8" s="1">
-        <f t="shared" si="3"/>
+      <c r="J8" s="1">
+        <f>G8/C8</f>
         <v>0.37084127339028167</v>
       </c>
-      <c r="J8" s="1">
-        <f t="shared" si="4"/>
+      <c r="K8" s="1">
+        <f t="shared" si="3"/>
         <v>0.37084127339028167</v>
       </c>
-      <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>2007</v>
       </c>
@@ -3573,35 +3922,39 @@
       <c r="D9" s="1">
         <v>5</v>
       </c>
-      <c r="E9" s="1">
-        <f t="shared" si="5"/>
+      <c r="E9" s="8">
+        <f t="shared" si="0"/>
+        <v>39050.199999999997</v>
+      </c>
+      <c r="F9" s="1">
+        <f>0.2*C8+0.8*F8</f>
         <v>222963.09299200002</v>
       </c>
-      <c r="F9" s="2">
-        <f t="shared" si="0"/>
+      <c r="G9" s="2">
+        <f>C9-F9</f>
         <v>-27712.09299200002</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <f t="shared" si="1"/>
         <v>27712.09299200002</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <f t="shared" si="2"/>
         <v>767960097.99725664</v>
       </c>
-      <c r="I9" s="1">
-        <f t="shared" si="3"/>
+      <c r="J9" s="1">
+        <f>G9/C9</f>
         <v>-0.14193060722864426</v>
       </c>
-      <c r="J9" s="1">
-        <f t="shared" si="4"/>
+      <c r="K9" s="1">
+        <f t="shared" si="3"/>
         <v>0.14193060722864426</v>
       </c>
-      <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>2008</v>
       </c>
@@ -3611,35 +3964,39 @@
       <c r="D10" s="1">
         <v>3</v>
       </c>
-      <c r="E10" s="1">
-        <f t="shared" si="5"/>
+      <c r="E10" s="8">
+        <f t="shared" si="0"/>
+        <v>27097</v>
+      </c>
+      <c r="F10" s="1">
+        <f>0.2*C9+0.8*F9</f>
         <v>217420.67439360003</v>
       </c>
-      <c r="F10" s="2">
-        <f t="shared" si="0"/>
+      <c r="G10" s="2">
+        <f>C10-F10</f>
         <v>-136129.67439360003</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <f t="shared" si="1"/>
         <v>136129.67439360003</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <f t="shared" si="2"/>
         <v>18531288250.507565</v>
       </c>
-      <c r="I10" s="1">
-        <f t="shared" si="3"/>
+      <c r="J10" s="1">
+        <f>G10/C10</f>
         <v>-1.6745971189135331</v>
       </c>
-      <c r="J10" s="1">
-        <f t="shared" si="4"/>
+      <c r="K10" s="1">
+        <f t="shared" si="3"/>
         <v>1.6745971189135331</v>
       </c>
-      <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>2009</v>
       </c>
@@ -3649,35 +4006,39 @@
       <c r="D11" s="1">
         <v>3</v>
       </c>
-      <c r="E11" s="1">
-        <f t="shared" si="5"/>
+      <c r="E11" s="8">
+        <f t="shared" si="0"/>
+        <v>45056.333333333336</v>
+      </c>
+      <c r="F11" s="1">
+        <f>0.2*C10+0.8*F10</f>
         <v>190194.73951488006</v>
       </c>
-      <c r="F11" s="2">
-        <f t="shared" si="0"/>
+      <c r="G11" s="2">
+        <f>C11-F11</f>
         <v>-55025.739514880057</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <f t="shared" si="1"/>
         <v>55025.739514880057</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <f t="shared" si="2"/>
         <v>3027832009.1594324</v>
       </c>
-      <c r="I11" s="1">
-        <f t="shared" si="3"/>
+      <c r="J11" s="1">
+        <f>G11/C11</f>
         <v>-0.40708845604302801</v>
       </c>
-      <c r="J11" s="1">
-        <f t="shared" si="4"/>
+      <c r="K11" s="1">
+        <f t="shared" si="3"/>
         <v>0.40708845604302801</v>
       </c>
-      <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>2009</v>
       </c>
@@ -3687,35 +4048,39 @@
       <c r="D12" s="1">
         <v>10</v>
       </c>
-      <c r="E12" s="1">
-        <f t="shared" si="5"/>
+      <c r="E12" s="8">
+        <f t="shared" si="0"/>
+        <v>27818.9</v>
+      </c>
+      <c r="F12" s="1">
+        <f>0.2*C11+0.8*F11</f>
         <v>179189.59161190403</v>
       </c>
-      <c r="F12" s="2">
-        <f t="shared" si="0"/>
+      <c r="G12" s="2">
+        <f>C12-F12</f>
         <v>98999.408388095966</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
         <f t="shared" si="1"/>
         <v>98999.408388095966</v>
       </c>
-      <c r="H12" s="1">
+      <c r="I12" s="1">
         <f t="shared" si="2"/>
         <v>9800882861.1930065</v>
       </c>
-      <c r="I12" s="1">
-        <f t="shared" si="3"/>
+      <c r="J12" s="1">
+        <f>G12/C12</f>
         <v>0.35587103871143705</v>
       </c>
-      <c r="J12" s="1">
-        <f t="shared" si="4"/>
+      <c r="K12" s="1">
+        <f t="shared" si="3"/>
         <v>0.35587103871143705</v>
       </c>
-      <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>2010</v>
       </c>
@@ -3725,35 +4090,39 @@
       <c r="D13" s="1">
         <v>3</v>
       </c>
-      <c r="E13" s="1">
-        <f t="shared" si="5"/>
+      <c r="E13" s="8">
+        <f t="shared" si="0"/>
+        <v>43333.333333333336</v>
+      </c>
+      <c r="F13" s="1">
+        <f>0.2*C12+0.8*F12</f>
         <v>198989.47328952322</v>
       </c>
-      <c r="F13" s="2">
-        <f t="shared" si="0"/>
+      <c r="G13" s="2">
+        <f>C13-F13</f>
         <v>-68989.473289523215</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <f t="shared" si="1"/>
         <v>68989.473289523215</v>
       </c>
-      <c r="H13" s="1">
+      <c r="I13" s="1">
         <f t="shared" si="2"/>
         <v>4759547424.7658377</v>
       </c>
-      <c r="I13" s="1">
-        <f t="shared" si="3"/>
+      <c r="J13" s="1">
+        <f>G13/C13</f>
         <v>-0.53068825607325554</v>
       </c>
-      <c r="J13" s="1">
-        <f t="shared" si="4"/>
+      <c r="K13" s="1">
+        <f t="shared" si="3"/>
         <v>0.53068825607325554</v>
       </c>
-      <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>2010</v>
       </c>
@@ -3763,35 +4132,39 @@
       <c r="D14" s="1">
         <v>4</v>
       </c>
-      <c r="E14" s="1">
-        <f t="shared" si="5"/>
+      <c r="E14" s="8">
+        <f t="shared" si="0"/>
+        <v>29482.25</v>
+      </c>
+      <c r="F14" s="1">
+        <f>0.2*C13+0.8*F13</f>
         <v>185191.57863161858</v>
       </c>
-      <c r="F14" s="2">
-        <f t="shared" si="0"/>
+      <c r="G14" s="2">
+        <f>C14-F14</f>
         <v>-67262.578631618584</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H14" s="1">
         <f t="shared" si="1"/>
         <v>67262.578631618584</v>
       </c>
-      <c r="H14" s="1">
+      <c r="I14" s="1">
         <f t="shared" si="2"/>
         <v>4524254484.1746731</v>
       </c>
-      <c r="I14" s="1">
-        <f t="shared" si="3"/>
+      <c r="J14" s="1">
+        <f>G14/C14</f>
         <v>-0.57036503855386367</v>
       </c>
-      <c r="J14" s="1">
-        <f t="shared" si="4"/>
+      <c r="K14" s="1">
+        <f t="shared" si="3"/>
         <v>0.57036503855386367</v>
       </c>
-      <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>2011</v>
       </c>
@@ -3801,35 +4174,39 @@
       <c r="D15" s="1">
         <v>4</v>
       </c>
-      <c r="E15" s="1">
-        <f t="shared" si="5"/>
+      <c r="E15" s="8">
+        <f t="shared" si="0"/>
+        <v>38256</v>
+      </c>
+      <c r="F15" s="1">
+        <f>0.2*C14+0.8*F14</f>
         <v>171739.06290529488</v>
       </c>
-      <c r="F15" s="2">
-        <f t="shared" si="0"/>
+      <c r="G15" s="2">
+        <f>C15-F15</f>
         <v>-18715.062905294879</v>
       </c>
-      <c r="G15" s="1">
+      <c r="H15" s="1">
         <f t="shared" si="1"/>
         <v>18715.062905294879</v>
       </c>
-      <c r="H15" s="1">
+      <c r="I15" s="1">
         <f t="shared" si="2"/>
         <v>350253579.54914439</v>
       </c>
-      <c r="I15" s="1">
-        <f t="shared" si="3"/>
+      <c r="J15" s="1">
+        <f>G15/C15</f>
         <v>-0.12230148803648368</v>
       </c>
-      <c r="J15" s="1">
-        <f t="shared" si="4"/>
+      <c r="K15" s="1">
+        <f t="shared" si="3"/>
         <v>0.12230148803648368</v>
       </c>
-      <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>2012</v>
       </c>
@@ -3839,35 +4216,39 @@
       <c r="D16" s="1">
         <v>3</v>
       </c>
-      <c r="E16" s="1">
-        <f t="shared" si="5"/>
+      <c r="E16" s="8">
+        <f t="shared" si="0"/>
+        <v>28084</v>
+      </c>
+      <c r="F16" s="1">
+        <f>0.2*C15+0.8*F15</f>
         <v>167996.05032423593</v>
       </c>
-      <c r="F16" s="2">
-        <f t="shared" si="0"/>
+      <c r="G16" s="2">
+        <f>C16-F16</f>
         <v>-83744.050324235926</v>
       </c>
-      <c r="G16" s="1">
+      <c r="H16" s="1">
         <f t="shared" si="1"/>
         <v>83744.050324235926</v>
       </c>
-      <c r="H16" s="1">
+      <c r="I16" s="1">
         <f t="shared" si="2"/>
         <v>7013065964.7081594</v>
       </c>
-      <c r="I16" s="1">
-        <f t="shared" si="3"/>
+      <c r="J16" s="1">
+        <f>G16/C16</f>
         <v>-0.99397106684987802</v>
       </c>
-      <c r="J16" s="1">
-        <f t="shared" si="4"/>
+      <c r="K16" s="1">
+        <f t="shared" si="3"/>
         <v>0.99397106684987802</v>
       </c>
-      <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>2013</v>
       </c>
@@ -3877,35 +4258,39 @@
       <c r="D17" s="1">
         <v>3</v>
       </c>
-      <c r="E17" s="1">
-        <f t="shared" si="5"/>
+      <c r="E17" s="8">
+        <f t="shared" si="0"/>
+        <v>50626</v>
+      </c>
+      <c r="F17" s="1">
+        <f>0.2*C16+0.8*F16</f>
         <v>151247.24025938875</v>
       </c>
-      <c r="F17" s="2">
-        <f t="shared" si="0"/>
+      <c r="G17" s="2">
+        <f>C17-F17</f>
         <v>630.75974061124725</v>
       </c>
-      <c r="G17" s="1">
+      <c r="H17" s="1">
         <f t="shared" si="1"/>
         <v>630.75974061124725</v>
       </c>
-      <c r="H17" s="1">
+      <c r="I17" s="1">
         <f t="shared" si="2"/>
         <v>397857.85037596792</v>
       </c>
-      <c r="I17" s="1">
-        <f t="shared" si="3"/>
+      <c r="J17" s="1">
+        <f>G17/C17</f>
         <v>4.1530685195436288E-3</v>
       </c>
-      <c r="J17" s="1">
-        <f t="shared" si="4"/>
+      <c r="K17" s="1">
+        <f t="shared" si="3"/>
         <v>4.1530685195436288E-3</v>
       </c>
-      <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>2014</v>
       </c>
@@ -3915,35 +4300,39 @@
       <c r="D18" s="1">
         <v>3</v>
       </c>
-      <c r="E18" s="1">
-        <f t="shared" si="5"/>
+      <c r="E18" s="8">
+        <f t="shared" si="0"/>
+        <v>16000</v>
+      </c>
+      <c r="F18" s="1">
+        <f>0.2*C17+0.8*F17</f>
         <v>151373.392207511</v>
       </c>
-      <c r="F18" s="2">
-        <f t="shared" si="0"/>
+      <c r="G18" s="2">
+        <f>C18-F18</f>
         <v>-103373.392207511</v>
       </c>
-      <c r="G18" s="1">
+      <c r="H18" s="1">
         <f t="shared" si="1"/>
         <v>103373.392207511</v>
       </c>
-      <c r="H18" s="1">
+      <c r="I18" s="1">
         <f t="shared" si="2"/>
         <v>10686058216.487896</v>
       </c>
-      <c r="I18" s="1">
-        <f t="shared" si="3"/>
+      <c r="J18" s="1">
+        <f>G18/C18</f>
         <v>-2.1536123376564791</v>
       </c>
-      <c r="J18" s="1">
-        <f t="shared" si="4"/>
+      <c r="K18" s="1">
+        <f t="shared" si="3"/>
         <v>2.1536123376564791</v>
       </c>
-      <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
-    </row>
-    <row r="19" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>2015</v>
       </c>
@@ -3953,35 +4342,39 @@
       <c r="D19" s="1">
         <v>5</v>
       </c>
-      <c r="E19" s="1">
-        <f t="shared" si="5"/>
+      <c r="E19" s="8">
+        <f t="shared" si="0"/>
+        <v>33560</v>
+      </c>
+      <c r="F19" s="1">
+        <f>0.2*C18+0.8*F18</f>
         <v>130698.7137660088</v>
       </c>
-      <c r="F19" s="2">
-        <f t="shared" si="0"/>
+      <c r="G19" s="2">
+        <f>C19-F19</f>
         <v>37101.286233991195</v>
       </c>
-      <c r="G19" s="1">
+      <c r="H19" s="1">
         <f t="shared" si="1"/>
         <v>37101.286233991195</v>
       </c>
-      <c r="H19" s="1">
+      <c r="I19" s="1">
         <f t="shared" si="2"/>
         <v>1376505440.2165446</v>
       </c>
-      <c r="I19" s="1">
-        <f t="shared" si="3"/>
+      <c r="J19" s="1">
+        <f>G19/C19</f>
         <v>0.22110420878421452</v>
       </c>
-      <c r="J19" s="1">
-        <f t="shared" si="4"/>
+      <c r="K19" s="1">
+        <f t="shared" si="3"/>
         <v>0.22110420878421452</v>
       </c>
-      <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
-    </row>
-    <row r="20" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>2016</v>
       </c>
@@ -3991,39 +4384,43 @@
       <c r="D20" s="1">
         <v>4</v>
       </c>
-      <c r="E20" s="1">
-        <f t="shared" si="5"/>
+      <c r="E20" s="8">
+        <f t="shared" si="0"/>
+        <v>42552.5</v>
+      </c>
+      <c r="F20" s="1">
+        <f>0.2*C19+0.8*F19</f>
         <v>138118.97101280704</v>
       </c>
-      <c r="F20" s="2">
-        <f t="shared" si="0"/>
+      <c r="G20" s="2">
+        <f>C20-F20</f>
         <v>32091.028987192956</v>
       </c>
-      <c r="G20" s="1">
+      <c r="H20" s="1">
         <f t="shared" si="1"/>
         <v>32091.028987192956</v>
       </c>
-      <c r="H20" s="1">
+      <c r="I20" s="1">
         <f t="shared" si="2"/>
         <v>1029834141.4568586</v>
       </c>
-      <c r="I20" s="1">
-        <f t="shared" si="3"/>
+      <c r="J20" s="1">
+        <f>G20/C20</f>
         <v>0.18853785903996803</v>
       </c>
-      <c r="J20" s="1">
-        <f t="shared" si="4"/>
+      <c r="K20" s="1">
+        <f t="shared" si="3"/>
         <v>0.18853785903996803</v>
       </c>
-      <c r="K20" s="1"/>
-      <c r="L20" s="7" t="s">
+      <c r="L20" s="1"/>
+      <c r="M20" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="M20" s="10"/>
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
-    </row>
-    <row r="21" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P20" s="10"/>
+    </row>
+    <row r="21" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>2017</v>
       </c>
@@ -4033,41 +4430,45 @@
       <c r="D21" s="1">
         <v>4</v>
       </c>
-      <c r="E21" s="1">
-        <f t="shared" si="5"/>
+      <c r="E21" s="8">
+        <f t="shared" si="0"/>
+        <v>55716</v>
+      </c>
+      <c r="F21" s="1">
+        <f>0.2*C20+0.8*F20</f>
         <v>144537.17681024564</v>
       </c>
-      <c r="F21" s="2">
-        <f t="shared" si="0"/>
+      <c r="G21" s="2">
+        <f>C21-F21</f>
         <v>78326.823189754359</v>
       </c>
-      <c r="G21" s="1">
+      <c r="H21" s="1">
         <f t="shared" si="1"/>
         <v>78326.823189754359</v>
       </c>
-      <c r="H21" s="1">
+      <c r="I21" s="1">
         <f t="shared" si="2"/>
         <v>6135091230.9990416</v>
       </c>
-      <c r="I21" s="1">
-        <f t="shared" si="3"/>
+      <c r="J21" s="1">
+        <f>G21/C21</f>
         <v>0.3514557002914529</v>
       </c>
-      <c r="J21" s="1">
-        <f t="shared" si="4"/>
+      <c r="K21" s="1">
+        <f t="shared" si="3"/>
         <v>0.3514557002914529</v>
       </c>
-      <c r="K21" s="1"/>
-      <c r="L21" s="7" t="s">
+      <c r="L21" s="1"/>
+      <c r="M21" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="M21" s="10"/>
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
       <c r="P21" s="10"/>
       <c r="Q21" s="10"/>
-    </row>
-    <row r="22" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R21" s="10"/>
+    </row>
+    <row r="22" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>2018</v>
       </c>
@@ -4077,41 +4478,45 @@
       <c r="D22" s="1">
         <v>4</v>
       </c>
-      <c r="E22" s="1">
-        <f t="shared" si="5"/>
+      <c r="E22" s="8">
+        <f t="shared" si="0"/>
+        <v>57500</v>
+      </c>
+      <c r="F22" s="1">
+        <f>0.2*C21+0.8*F21</f>
         <v>160202.54144819651</v>
       </c>
-      <c r="F22" s="2">
-        <f t="shared" si="0"/>
+      <c r="G22" s="2">
+        <f>C22-F22</f>
         <v>69797.458551803487</v>
       </c>
-      <c r="G22" s="1">
+      <c r="H22" s="1">
         <f t="shared" si="1"/>
         <v>69797.458551803487</v>
       </c>
-      <c r="H22" s="1">
+      <c r="I22" s="1">
         <f t="shared" si="2"/>
         <v>4871685220.2907257</v>
       </c>
-      <c r="I22" s="1">
-        <f t="shared" si="3"/>
+      <c r="J22" s="1">
+        <f>G22/C22</f>
         <v>0.3034672110947978</v>
       </c>
-      <c r="J22" s="1">
-        <f t="shared" si="4"/>
+      <c r="K22" s="1">
+        <f t="shared" si="3"/>
         <v>0.3034672110947978</v>
       </c>
-      <c r="K22" s="1"/>
-      <c r="L22" s="7" t="s">
+      <c r="L22" s="1"/>
+      <c r="M22" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="M22" s="10"/>
       <c r="N22" s="10"/>
       <c r="O22" s="10"/>
       <c r="P22" s="10"/>
       <c r="Q22" s="10"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R22" s="10"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>2019</v>
       </c>
@@ -4121,54 +4526,58 @@
       <c r="D23" s="1">
         <v>4</v>
       </c>
-      <c r="E23" s="1">
-        <f t="shared" si="5"/>
+      <c r="E23" s="8">
+        <f t="shared" si="0"/>
+        <v>60000</v>
+      </c>
+      <c r="F23" s="1">
+        <f>0.2*C22+0.8*F22</f>
         <v>174162.0331585572</v>
       </c>
-      <c r="F23" s="2">
-        <f t="shared" si="0"/>
+      <c r="G23" s="2">
+        <f>C23-F23</f>
         <v>65837.966841442802</v>
       </c>
-      <c r="G23" s="1">
+      <c r="H23" s="1">
         <f t="shared" si="1"/>
         <v>65837.966841442802</v>
       </c>
-      <c r="H23" s="1">
+      <c r="I23" s="1">
         <f t="shared" si="2"/>
         <v>4334637877.8149214</v>
       </c>
-      <c r="I23" s="1">
-        <f t="shared" si="3"/>
+      <c r="J23" s="1">
+        <f>G23/C23</f>
         <v>0.27432486183934501</v>
       </c>
-      <c r="J23" s="1">
-        <f t="shared" si="4"/>
+      <c r="K23" s="1">
+        <f t="shared" si="3"/>
         <v>0.27432486183934501</v>
       </c>
-      <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="3">
-        <f>AVERAGE(J3:J23)</f>
+      <c r="K24" s="1"/>
+      <c r="L24" s="3">
+        <f>AVERAGE(K3:K23)</f>
         <v>0.48382668741054646</v>
       </c>
-      <c r="L24" s="3">
-        <f>AVERAGE(G3:G23)</f>
+      <c r="M24" s="3">
+        <f>AVERAGE(H3:H23)</f>
         <v>64217.815864359793</v>
       </c>
-      <c r="M24" s="5">
-        <f>AVERAGE(H3:H23)</f>
+      <c r="N24" s="5">
+        <f>AVERAGE(I3:I23)</f>
         <v>5339992005.1440687</v>
       </c>
     </row>
@@ -4184,7 +4593,7 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N24" sqref="A1:N24"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5235,10 +5644,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5246,7 +5655,7 @@
     <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -5289,8 +5698,11 @@
       <c r="N1" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>2000</v>
       </c>
@@ -5317,7 +5729,7 @@
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>2001</v>
       </c>
@@ -5328,7 +5740,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="8">
-        <f t="shared" ref="D3:D24" si="0">B3/C3</f>
+        <f t="shared" ref="D3:D23" si="0">B3/C3</f>
         <v>24533.8</v>
       </c>
       <c r="E3" s="9">
@@ -5344,7 +5756,7 @@
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>2002</v>
       </c>
@@ -5371,7 +5783,7 @@
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>2003</v>
       </c>
@@ -5398,7 +5810,7 @@
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>2004</v>
       </c>
@@ -5443,7 +5855,7 @@
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>2005</v>
       </c>
@@ -5488,7 +5900,7 @@
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>2006</v>
       </c>
@@ -5533,7 +5945,7 @@
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>2007</v>
       </c>
@@ -5578,7 +5990,7 @@
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>2008</v>
       </c>
@@ -5623,7 +6035,7 @@
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>2009</v>
       </c>
@@ -5668,7 +6080,7 @@
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>2009</v>
       </c>
@@ -5713,7 +6125,7 @@
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>2010</v>
       </c>
@@ -5758,7 +6170,7 @@
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>2010</v>
       </c>
@@ -5803,7 +6215,7 @@
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>2011</v>
       </c>
@@ -5848,7 +6260,7 @@
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>2012</v>
       </c>
@@ -5893,7 +6305,7 @@
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>2013</v>
       </c>
@@ -5938,7 +6350,7 @@
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>2014</v>
       </c>
@@ -5983,7 +6395,7 @@
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>2015</v>
       </c>
@@ -6028,7 +6440,7 @@
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>2016</v>
       </c>
@@ -6073,7 +6485,7 @@
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>2017</v>
       </c>
@@ -6118,7 +6530,7 @@
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>2018</v>
       </c>
@@ -6163,7 +6575,7 @@
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>2019</v>
       </c>
@@ -6208,7 +6620,7 @@
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -6232,6 +6644,10 @@
         <f>AVERAGE(I5:I23)</f>
         <v>157690931.36032832</v>
       </c>
+      <c r="O24">
+        <f>SQRT(N24)</f>
+        <v>12557.504981497254</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
